--- a/code/expected output/Supplementary Table S6. Multivariate regression results for gravity models....xlsx
+++ b/code/expected output/Supplementary Table S6. Multivariate regression results for gravity models....xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SciRobot\Desktop\expected output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2018-6-21-GLSN- aim higher &amp; work harder\R Soc Open Sci审稿\第二轮\GLSN-and-international-trade\code\expected output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BC631A-45F5-46EE-932D-1E05D60AEDB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A97A7B-9387-4B37-B189-788B3C38C3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary Table S6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Explanatory variable</t>
   </si>
@@ -40,49 +40,16 @@
     <t># observations</t>
   </si>
   <si>
-    <t>ln(GDPi x GDPj)</t>
+    <t>ln(GDPi x GDPj), ln(dij)</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>ln(dij)</t>
-  </si>
-  <si>
-    <t>ln(LSBCIij)</t>
-  </si>
-  <si>
-    <t>ln(Gci x Gcj)</t>
-  </si>
-  <si>
-    <t>ln(GDPi x GDPj), ln(dij)</t>
-  </si>
-  <si>
-    <t>ln(GDPi x GDPj), ln(LSBCIij)</t>
-  </si>
-  <si>
-    <t>ln(GDPi x GDPj), ln(Gci x Gcj)</t>
-  </si>
-  <si>
-    <t>ln(dij), ln(LSBCIij)</t>
-  </si>
-  <si>
-    <t>ln(dij), ln(Gci x Gcj)</t>
-  </si>
-  <si>
-    <t>ln(LSBCIij), ln(Gci x Gcj)</t>
-  </si>
-  <si>
     <t>ln(GDPi x GDPj), ln(dij), ln(LSBCIij)</t>
   </si>
   <si>
     <t>ln(GDPi x GDPj), ln(dij), ln(Gci x Gcj)</t>
-  </si>
-  <si>
-    <t>ln(GDPi x GDPj), ln(LSBCIij), ln(Gci x Gcj)</t>
-  </si>
-  <si>
-    <t>ln(dij), ln(LSBCIij), ln(Gci x Gcj)</t>
   </si>
   <si>
     <t>ln(GDPi x GDPj), ln(dij), ln(LSBCIij), ln(Gci x Gcj)</t>
@@ -104,6 +71,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -175,23 +143,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>128382</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3095625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>113554</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104093</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9756C7A4-4EBC-4277-A949-1A6E1CEC8F76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162581C3-1188-468B-A178-2D4A4E52C141}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -207,8 +175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="299832"/>
-          <a:ext cx="4476004" cy="4090511"/>
+          <a:off x="3095625" y="1123950"/>
+          <a:ext cx="6980952" cy="3409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -505,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,16 +511,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.69199999999999995</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1852.47</v>
+        <v>1229.19</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="F2">
         <v>1818</v>
@@ -563,16 +531,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>8.0000000000000002E-3</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>3979.67</v>
+        <v>1180.6199999999999</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2.04</v>
       </c>
       <c r="F3">
         <v>1818</v>
@@ -583,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.36799999999999999</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3160.08</v>
+        <v>1176.6500000000001</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F4">
         <v>1818</v>
@@ -603,245 +571,24 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.47799999999999998</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>2814.03</v>
+        <v>1165.29</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>6.29</v>
       </c>
       <c r="F5">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>1229.19</v>
-      </c>
-      <c r="E6">
-        <v>1.24</v>
-      </c>
-      <c r="F6">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1834.68</v>
-      </c>
-      <c r="E7">
-        <v>1.85</v>
-      </c>
-      <c r="F7">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>1845.39</v>
-      </c>
-      <c r="E8">
-        <v>3.72</v>
-      </c>
-      <c r="F8">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>3120.85</v>
-      </c>
-      <c r="E9">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F9">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>2352.36</v>
-      </c>
-      <c r="E10">
-        <v>1.43</v>
-      </c>
-      <c r="F10">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>2778.12</v>
-      </c>
-      <c r="E11">
-        <v>2.61</v>
-      </c>
-      <c r="F11">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>1180.6199999999999</v>
-      </c>
-      <c r="E12">
-        <v>2.04</v>
-      </c>
-      <c r="F12">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>1176.6500000000001</v>
-      </c>
-      <c r="E13">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="F13">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>1794.81</v>
-      </c>
-      <c r="E14">
-        <v>5.24</v>
-      </c>
-      <c r="F14">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>2345.9899999999998</v>
-      </c>
-      <c r="E15">
-        <v>3.42</v>
-      </c>
-      <c r="F15">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>1165.29</v>
-      </c>
-      <c r="E16">
-        <v>6.29</v>
-      </c>
-      <c r="F16">
         <v>1818</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>